--- a/HexProject/Book1.xlsx
+++ b/HexProject/Book1.xlsx
@@ -9,10 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="49">
   <si>
     <t>abc456</t>
   </si>
@@ -57,6 +60,120 @@
   </si>
   <si>
     <t>over abc</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>write</t>
+  </si>
+  <si>
+    <t>default (undo)</t>
+  </si>
+  <si>
+    <t>d.del.d(u).del</t>
+  </si>
+  <si>
+    <t>inside</t>
+  </si>
+  <si>
+    <t>wanna read</t>
+  </si>
+  <si>
+    <t>ac</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dOffset = </t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>B - A</t>
+  </si>
+  <si>
+    <t>dOffset = A - B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count = </t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>amm</t>
+  </si>
+  <si>
+    <t>20 19 22</t>
+  </si>
+  <si>
+    <t>whitout textoutW</t>
+  </si>
+  <si>
+    <t>v1 col=16, maximize, hex,char</t>
+  </si>
+  <si>
+    <t>17 16 17</t>
+  </si>
+  <si>
+    <t>whitout renderContents</t>
+  </si>
+  <si>
+    <t>renderContents</t>
+  </si>
+  <si>
+    <t>indicator</t>
+  </si>
+  <si>
+    <t>16 16 17</t>
+  </si>
+  <si>
+    <t>whitout paintdefault</t>
+  </si>
+  <si>
+    <t>whitout getrowtext</t>
+  </si>
+  <si>
+    <t>15,14,17</t>
+  </si>
+  <si>
+    <t>whitout getrowstyle</t>
+  </si>
+  <si>
+    <t>15,14,16</t>
+  </si>
+  <si>
+    <t>8 7 8</t>
+  </si>
+  <si>
+    <t>whitout ts scan</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>clearing isover</t>
+  </si>
+  <si>
+    <t>18 18 19</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>clearing isover p2</t>
+  </si>
+  <si>
+    <t>16 16 18</t>
   </si>
 </sst>
 </file>
@@ -79,15 +196,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -95,17 +230,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,7 +539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+    <sheetView topLeftCell="B10" workbookViewId="0">
       <selection activeCell="K25" sqref="K25:M26"/>
     </sheetView>
   </sheetViews>
@@ -646,4 +797,326 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1234567890</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>134567890</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>1234567890</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>124567890</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>1234567890</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E3:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="J3" s="5"/>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="4"/>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="J5" s="10"/>
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E9" s="9"/>
+      <c r="F9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E14" s="9"/>
+      <c r="F14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D5:L15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="7" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="9" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>